--- a/final_data_pipeline/output/312140longform_elec_options_nowhp.xlsx
+++ b/final_data_pipeline/output/312140longform_elec_options_nowhp.xlsx
@@ -558,7 +558,7 @@
         <v>32</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="J2">
         <v>8000</v>
@@ -573,10 +573,10 @@
         <v>350400.7380282221</v>
       </c>
       <c r="N2">
-        <v>1.667307692307692</v>
+        <v>1.722630989917367</v>
       </c>
       <c r="O2">
-        <v>1.799766355140187</v>
+        <v>1.865269081797952</v>
       </c>
       <c r="P2">
         <v>43.80009225352776</v>
@@ -711,7 +711,7 @@
         <v>32</v>
       </c>
       <c r="I5">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="J5">
         <v>8000</v>
@@ -726,10 +726,10 @@
         <v>624892.2892158215</v>
       </c>
       <c r="N5">
-        <v>1.667307692307692</v>
+        <v>1.722630989917367</v>
       </c>
       <c r="O5">
-        <v>1.799766355140187</v>
+        <v>1.865269081797952</v>
       </c>
       <c r="P5">
         <v>78.1115361519777</v>
@@ -764,7 +764,7 @@
         <v>32</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="J6">
         <v>8000</v>
@@ -779,10 +779,10 @@
         <v>421832.8328422559</v>
       </c>
       <c r="N6">
-        <v>1.667307692307692</v>
+        <v>1.578134831460674</v>
       </c>
       <c r="O6">
-        <v>1.799766355140187</v>
+        <v>1.695036674816626</v>
       </c>
       <c r="P6">
         <v>52.72910410528199</v>
@@ -870,7 +870,7 @@
         <v>34</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="J8">
         <v>8000</v>
@@ -917,7 +917,7 @@
         <v>33</v>
       </c>
       <c r="I9">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="J9">
         <v>8000</v>
@@ -1017,7 +1017,7 @@
         <v>32</v>
       </c>
       <c r="I11">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="J11">
         <v>8000</v>
@@ -1032,10 +1032,10 @@
         <v>1004944.353160618</v>
       </c>
       <c r="N11">
-        <v>1.667307692307692</v>
+        <v>1.819666609086197</v>
       </c>
       <c r="O11">
-        <v>1.799766355140187</v>
+        <v>1.981148790245761</v>
       </c>
       <c r="P11">
         <v>125.6180441450772</v>
@@ -1070,7 +1070,7 @@
         <v>33</v>
       </c>
       <c r="I12">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="J12">
         <v>8000</v>
@@ -1117,7 +1117,7 @@
         <v>32</v>
       </c>
       <c r="I13">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="J13">
         <v>8000</v>
@@ -1132,10 +1132,10 @@
         <v>457017.1986933888</v>
       </c>
       <c r="N13">
-        <v>1.667307692307692</v>
+        <v>1.722630989917367</v>
       </c>
       <c r="O13">
-        <v>1.799766355140187</v>
+        <v>1.865269081797952</v>
       </c>
       <c r="P13">
         <v>57.12714983667361</v>
@@ -1170,7 +1170,7 @@
         <v>32</v>
       </c>
       <c r="I14">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="J14">
         <v>8000</v>
@@ -1185,10 +1185,10 @@
         <v>937351.5706633782</v>
       </c>
       <c r="N14">
-        <v>1.667307692307692</v>
+        <v>1.578134831460674</v>
       </c>
       <c r="O14">
-        <v>1.799766355140187</v>
+        <v>1.695036674816626</v>
       </c>
       <c r="P14">
         <v>117.1689463329223</v>
@@ -1223,7 +1223,7 @@
         <v>33</v>
       </c>
       <c r="I15">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="J15">
         <v>8000</v>
